--- a/excel/403 Congiuntivo - Imperfetto.xlsx
+++ b/excel/403 Congiuntivo - Imperfetto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carol\0-Coding\quiz-mini-springboot\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="534">
   <si>
     <t>类别名称</t>
   </si>
@@ -133,6 +133,436 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>fossimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>foste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fossero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>avessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>avesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>avessimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>volessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>volesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>volessimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>volessero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bevessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bevessimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beveste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>403 Congiuntivo - Imperfetto</t>
+  </si>
+  <si>
+    <t>amassi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amassimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amaste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amassero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiedessi</t>
+  </si>
+  <si>
+    <t>chiedessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiedessimo</t>
+  </si>
+  <si>
+    <t>chiedeste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiedessero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aprissi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aprisse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aprissimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apriste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finissi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finisse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finissimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>facessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>facesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>facessimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>facessero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>andassi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>andasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>andaste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>andassero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>venissi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>venissimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>veniste</t>
+  </si>
+  <si>
+    <t>venissero</t>
+  </si>
+  <si>
+    <t>dovessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dovesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dovessimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dovessero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>potessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>potesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>potessi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mo</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>poteste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>potessero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stessimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stessero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dessimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dessero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenessero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dicessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dicesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dicessimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>diceste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dicessero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>salissi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>salisse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>salissi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mo</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>salissero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sapessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sapessimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sapeste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sapessero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rimanessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rimanesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rimanessimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rimanessero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scegliessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scegliesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scegliessimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sceglieste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scegliessero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proponessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proponesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proponeste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proponessero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 提出, 提议, 建议：
+proporre una mozione 提出一项动议
+proporre un argomento di discussione 提出一个议题
+proporre una tregua建议休战
+proporre un rinvio della seduta提议会议延期
+(2) 提名, 推荐, 推举：
+proporre qlcu. come esempio 推举某人为榜样
+proporre qlcu. come responsabile提名某人为负责人
+(3) 确定; 打算, 计划: proporsi un obbiettivo 确定一个目标
+Mi ero proposto di partire subito. 我打算马上动身。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uscissi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uscissimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>piacessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>piacesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>piacessimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>piacessero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>corressi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>correste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>fossi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -141,34 +571,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fossimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>foste</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fossero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>avessi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>avessi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>avesse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>avessimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>aveste</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -181,22 +587,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>volesse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>volessimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>voleste</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>volessero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bevessi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -205,49 +599,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bevessimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>beveste</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bevessero</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>403 Congiuntivo - Imperfetto</t>
-  </si>
-  <si>
     <t>amassi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>amassi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>amasse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>amassimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>amaste</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>amassero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chiedessi</t>
-  </si>
-  <si>
-    <t>chiedessi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -268,33 +624,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>chiedessimo</t>
-  </si>
-  <si>
-    <t>chiedeste</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chiedessero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>aprissi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>aprisse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aprissimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>apriste</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>aprissero</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -303,14 +636,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>finisse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>finissimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>finiste</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -323,106 +648,158 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>facessi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>facesse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>facessimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>faceste</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>facessero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>andassi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>andassi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>andasse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>andassimo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>andaste</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>andassero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>venissi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>venissi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>venisse</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>venissimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>veniste</t>
-  </si>
-  <si>
-    <t>venissero</t>
-  </si>
-  <si>
-    <t>dovessi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dovesse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dovessimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>doveste</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dovessero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>potessi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>potessi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>potesse</t>
+    <t>tenessimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teneste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>saliste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sapessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sapesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rimaneste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scegliessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proponessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proponessimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uscissi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uscisse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>usciste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uscissero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>piacessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>piaceste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>corressi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>corresse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>corressimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>corressero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sembrare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sembrasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leggere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>leggesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergesse</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>potessi</t>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v.intr.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出现，显出</t>
     </r>
     <r>
       <rPr>
@@ -433,117 +810,47 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>mo</t>
+      <t>: Dal buio emersero due loschi individui.黑暗中出现两个形迹可疑的人</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>poteste</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>potessero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stessi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stesse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stessimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>steste</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stessero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dessi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>desse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dessimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deste</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dessero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tenessi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tenessi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tenesse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tenessimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>teneste</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tenessero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dicessi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dicesse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dicessimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>diceste</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dicessero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>salissi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>salissi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>salisse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pubblicare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pubblicasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pubblicare una notizia发表一条消息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lavorare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lavorasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>osservare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>noi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lavorassimo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>salissi</t>
+      <t xml:space="preserve">(1) 观察, 观测; 注视, 监视：
+osservare una ferita 观察伤口
+</t>
     </r>
     <r>
       <rPr>
@@ -554,197 +861,1923 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>mo</t>
+      <t xml:space="preserve">(3) </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>saliste</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>salissero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sapessi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sapessi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sapesse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sapessimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sapeste</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sapessero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rimanessi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rimanesse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rimanessimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rimaneste</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rimanessero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>scegliessi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>scegliessi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>scegliesse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>scegliessimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sceglieste</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>scegliessero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>proponessi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>proponessi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>proponesse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>proponessimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>proponeste</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>proponessero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1) 提出, 提议, 建议：
-proporre una mozione 提出一项动议
-proporre un argomento di discussione 提出一个议题
-proporre una tregua建议休战
-proporre un rinvio della seduta提议会议延期
-(2) 提名, 推荐, 推举：
-proporre qlcu. come esempio 推举某人为榜样
-proporre qlcu. come responsabile提名某人为负责人
-(3) 确定; 打算, 计划: proporsi un obbiettivo 确定一个目标
-Mi ero proposto di partire subito. 我打算马上动身。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uscissi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uscisse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uscissimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>usciste</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uscissero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>piacessi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>piacessi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>piacesse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>piacessimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>piaceste</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>piacessero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>corressi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>corressi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>corresse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>corressimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>correste</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>corressero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>遵守</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">奉行：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>osservare la disciplina</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>遵守纪律</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>aumentare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>aumentasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.tr 增加 mi hanno aumentato lo stipendio 她们给我涨工资了
+ （人是主语，人来做增加这个动作）
+v.intr 增加 la popolazione è aumentata notevolmente 人口显著增加了（增长的东西是主语）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>aiutare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>aiutasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appartenere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>appartenesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v.intr.属于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Quel dizionario appartiene alla bibliotece scolastica. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>那本字典是学习图书馆的</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rappresentare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rappresentasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>象征，体现，表示：
+Il verde rappresenta la speranza. 绿色象征希望。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>trattarsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si trattasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>si tratta di...关于, 涉及, 问题在于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Si tratta di vita o di morte.这与生死有关</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>eseguire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>eseguisse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实行，实施：
+eseguire un lavoro (un piano) 实行一项工作 (一个计划)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rilassarsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si rilassasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放松, 松懈; 休息, 轻松一下 Cerca di rilassarti un po’！你尽量放松下</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentirsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si sentisse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感到，觉得;想要;打电话   Non mi sento di uscire. 我不想出去</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>esistere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>esistesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在，有 Questo personaggio non esiste.这个人物是不存在的.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>diventare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>diventasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Il latte è diventato acido. 牛奶变酸了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>terminare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>terminasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.intr [aus. essere] 结束; 终止, 完毕 Lo spettacolo termina alle cinque. 演出在五点钟结束</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>festeggiare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>festeggiasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆祝，欢庆：
+festeggiare un anniversario庆祝周年纪念日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>avvenire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>avvenisse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v.intr Che cosa è avvenuto?发生了什么事?
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>impedire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>impedisse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妨碍 Il maltempo ci ha impedito di partire.恶劣的天气使我们不能启程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>scomparire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>scoparisse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.intr 不见, 消失，消逝, 消散:L’aereo scomparve all’orizzonte.飞机消失在地平线上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>contattare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>contattasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho contattato un cliente 我联系了一个客户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>conoscere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>conoscessimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>studiare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>voi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>studiaste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trovare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>trovasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>posizionare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>posizionasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. posizionare le telecamere 摆放好摄像头</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riflettere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riflettesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.反映，反射 L’aumento dei prezzi riflette la difficoltà della produzione. 物价上涨反映出生产上的困难
+vi. （后面+ su） 思考 riflettere sulle conseguenze 考虑后果
+Lasciami riflettere su un po’. 让我想一想</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>collegare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>collegasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接, 接合：
+collegare due città con una linea ferroviaria 用铁路线把两个城市连接起来</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>programmare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>programmasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 制定计划,规划: programmare la produzione industriale 制定工业生产计划</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>apprezzare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>apprezzassimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutti apprezzano il suo lavoro. 大家都很重视他的工作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ricevere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ricevesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>riuscire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riuscisse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>riuscire a fare qlco 成功做某事 Forse riusciremo a terminare il lavoro domani.也许明天我们可以结束工作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrarre</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>attraesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招引, 引诱, 诱惑：
+I manifesti affissi al muro attrassero molti passanti 墙上的广告招引来许多行人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>condividere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>condividesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享，分担；共同具有，共同使用：
+condividere gioie e dolori con qlcu. 与某人同甘共苦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riportare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riportasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带回; 拿回：Mi ha riportato a casa in automobile. 她用汽车把我带回了家</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>incontrare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>incontrasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invitare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>invitasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiudere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiudesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mostrare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mostrasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrivare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrivasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>durare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>durasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>La rappresentazione dura due ore. 演出持续了两个小时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Posso presentarti mia cugina?我可以把我的表妹介绍给你吗？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>applaudire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>applaudisse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.为...鼓掌，向...喝彩；欢呼：Gli operi applaudirono a lungo gli attori. 工人向演员们经久不息地鼓掌。
+vi. applaudire a uno spettacolo 为演出喝彩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquistare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquistasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vincere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vincesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">vincere un incontro di calcio 赢得一场足球比赛
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>provare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>provasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. Proviamo a entrare.我们试着进去</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentissi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dedicare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dedicasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Il primo capitolo del romanzo è dedicato alla descrizione dell’ambiente.小说的第一章用来描写环境</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>realizzare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>realizzasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>realizzare la gravità di una situazione 认识到情况的严重性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> realizzare un sogno 实现梦想
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rompersi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si rompesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自反动词：打破，折断，弄碎：
+Il bicchiere cadde e si ruppe in mille pezzi.杯子掉了下来，打得粉碎。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pensare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pensasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mentire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mentisse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i. Non mentire ！不要说谎！</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sostituire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sostituisse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sostituire il tappeto logoro con un nuovo用新地毯换下旧地毯</t>
+  </si>
+  <si>
+    <t>reagire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reagisse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> sotto anestesia i nervi non reagiscono 
+麻醉状态下神经没有反应</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>desiderare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>desiderasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inseguire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>inseguisse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inseguire il nemico 追击敌人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>frequentare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>frequentasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>frequentare un bar 常去酒吧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mia figlia frequenta la quinta elementare.我女儿上小学五年级</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>occorrere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>occorresse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.intr.
+[变位同correre] [aus. essere]
+(1) 需要：
+Ti occorrono almeno due giorni per terminare il lavoro. 至少你要两天才能完成这项工作。
+“Vuoi una mano?” “Grazie, non occorre.” “你要帮忙吗？” “谢谢，不用了。”
+Quanto ti occorre? 你需要多少 (钱) ？
+(2) [impers.] 必须：
+Occorre agire subito. 必须马上行动。
+Occorre far presto. 必须快点。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>affrontare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>affrontasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.tr.
+[io affronto, ecc.]
+(1) 迎击：
+I soldati affrontarono coraggiosamente il nemico.战士英勇迎击敌人。
+(2) 面临；应付，对付：
+affrontare un pericolo冒危险
+affrontare la morte 冒生命危险
+affrontare una situazione difficile应付困难
+(3) 研究，处理：
+affrontare una questione 研究问题
+affrontare un problema spinoso 处理一个棘手问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>possedere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>possedesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t. (1) 占有，拥有：
+possedere una bicicletta 有一辆自行车
+possedere un podere (un terreno) 拥有一所农庄 (一块土地)
+possedere una villa al mare有一座海边别墅
+(2) 具有 (品质、才能等) ：
+possedere molte qualità有许多优良品质
+possedere uno spiccato senso musicale有一种特殊的音乐感</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>seguire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>seguisse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vai avanti tu, io ti seguo.你在前面走, 我跟着你</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>inserire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>inserisse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入，放入，嵌入：
+inserire una lettera nella busta 将信装入信封</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniziare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniziasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始;发动, 创始：
+iniziare il lavoro开始工作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>illustrare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>illustrasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (举例、加注) 说明， (用图和例子等) 解释：
+illustrare un’opera con note 注释一部著作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>guardare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>guardasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>passare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>passasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>costringere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>costringesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.逼迫, 迫使, 强迫 La malattia mi ha costretto a restare a casa.疾病使我不得不待在家里</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>spiegare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>spiegasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ringraziare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ringraziassi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢，谢谢：
+ringraziare sinceramente qlcu. 对某人表示衷心感谢</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>raccontare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>raccontasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">叙述，讲述；描写，描绘：
+raccontare una storia (una fiaba) 讲故事 (童话)
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>partecipare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>partecipasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.后面+a 参加, 参与：
+partecipare a una gara 参加一次比赛</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prendere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prendesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cominciare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cominciasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>accogliere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>accogliessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t.欢迎；接受, 接纳：
+accogliere una domanda 接受一个要求
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bastare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bastasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lo stipendio non gli basta mai.工资对他来说总是不够的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sottolineare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sottolineasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 着重指出, 强调指出,使突出：
+Tengo a sottolineare l’importanza di questo particolare.我想强调指出这个细节的重要</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>raggiungere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>raggiungesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t. 赶上，抵达，取得
+Recentemente abbiamo raggiunto ottimi risultati. 最近我们取得了很好的成绩。
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>avvicinarsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si avvicinasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v.rifl.
+临近; 接近, 靠近：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>La nave si avvicina al porto.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>船靠近港口</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfruttare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfruttasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 开采，剥削，利用 sfruttare la fiducia di qlcu.利用某人的信任</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>augurarsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>noi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci augurassimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>augurarsi
+v.rifl.
+希望：
+Tutti si augurano di visitare Yan’an.大家都希望能访问延安</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riproporre</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riproponesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">重新提出 ★★ 再提出
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riproponessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loro</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riproponessero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">重新提出 ★★ 再提出
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ricordare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ricordasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>viaggiare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>viaggiasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addormentarsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si addormentasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v.rifl.
+(1) 入睡：
+Non si potevano addormentarsi </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>squillare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>squillasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.intr.
+[aus. essere 或 avere] (钟、铃等) 鸣, 响：
+Il telefono squilla.电话铃响了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggerire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggerisse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 使人想起;启发, 启示, 建议：
+La gravità della situazione suggerisce la massima prudenza. 形势严重万万不可掉以轻心。
+L’idea per il suo nuovo film gli è stata suggerita da un fatto di cronaca.他写这部新影片的想法是从一条社会新闻中得到的启示。
+Ilmedico ha suggerito al paziente di trascorrere un periodo di riposo in montagna. 医生建议病人到山上休息一段时期。
+(2) 提醒, 提示, 暗示：
+suggerire una risposta暗示一个回答</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>immaginare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>imaginassi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non puoi immaginare quanto ne sia lieto!你不能想象我是多么的高兴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.intr.
+ p.p. assistito] [aus. avere] 出席，参加，参与：（后面+a)
+Varie personalità hanno assistito alla cerimonia di apertura dei giochi sportivi nazionali. 很多知名人士出席了全国运动会开幕式。
+assistere a uno spettacolo 观看演出
+assistere alla lezione 听课
+[II.]
+v.tr.
+帮助，协助；照看：
+assistere un vecchio 帮助一位老年人
+assistere i pazienti 照料病人
+★　常用短语：
+che la fortuna t’assista! 祝你运气好！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rivolgere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rivolgessi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t. 把…转向；把…对准：
+rivolgere attenzione a qlco 把注意力转向某事
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>scattare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>scattasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.intr.
+[aus. avere 或 essere]
+(1) (弹赞等) 突然松开, 弹起：
+La trappola non è scattato. 这块跳板没弹起来。
+(2) [转] 跳起, 跃起; 突然加速, 冲刺 scattare in piedi一跃而起
+scattare all’attacco 跳起来冲锋
+scattare alla partenza (al via) 起跑
+scattare in salita [体] (自行车考中) 突然加速
+Dal prossimo mese scatterà l’aumento di stipendio. [转] 下个月将增加工资。
+(3) [转] 突然发怒:E’ molto nervoso, alla prima osservazione scatta.他非常烦躁, 刚提点意见就跳了起来。
+[II.]
+v.tr.
+拍摄：
+scattare una foto拍照片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alzare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alzasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>举起 ★★ 抬高 ★★ 抬 ★★ 举</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>accendere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>accendesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 点 (火), 点燃：
+accendere la fiaccola 点燃火炬, 点燃火把
+accendere la stufa生炉子
+accendere una sigaretta点烟
+(2) 开;开动：
+accendere la luce开灯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>toccarsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si tocasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相互触碰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorridere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorridesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 微笑：
+sorridere dolcemente甜蜜地微笑</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>occuparsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi occupassi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>occuparsi
+v.rifl.
+(1) 关心，从事于：
+occuparsi degli amici 关朋友，照料朋友
+occuparsi di politica 过问政治
+occuparsi di compravendita 从事买卖
+occuparsi di fisica nucleare 从事于原子物理，搞原子物理
+Non te ne occupare! 你甭管了！你不要过问啦！
+(2) 受雇于，就业：
+S’è occupato come bidello in una scuola. 他在一所学校里做校工</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>accorgersi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si accorgesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v.rifl.
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p.p. accòrto]
+(1) 发觉, 觉察, 注意到：
+Non mi sono accorto di lui e perciò non l’ho salutato.我没有看到他, 所以没有同他打招呼。
+Non mi ero accorto che pioveva.我没有注意到原来下雨了。
+(2) 开始意识到;理会到：
+Finalmente si è accorto dell’importanza del problema. 他终于意识到了问题的重要性。
+Mi accorsi di avere sbagliato.我知道我错了。
+★　常用短语：
+senz’accorgersene (senza accorgersene) 未注意到, 不知不觉地</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>供认坦白 ★★ 承认 ★★ 坦白 ★★ 忏悔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ti confesserò i miei sogni
+我向你坦白我的梦</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>continuare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>continuassi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intervenire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>intervenisse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi.(后面+in)介入，干涉，出席参加 intervenire in un conflitto 参预冲突</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ripensare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ripensasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 再想一想, 重新思考：
+Ripensaci prima di rispondere.在回答之前 再想一想。
+Pensa e ripensa, si ricordò finalmente il mio indirizzo他想了又想, 终于想起了我的地址。
+Ho ripensato alla tua proposta. 我又想了一下你的建议。
+(2) 重新想起, 重新想到: ripensare alla giovinezza又想起年青时代
+(3) 改变想法:Ci ho ripesato, resto a casa. 我改变了想法, 我留在家里</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decidere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decidesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 解决, 裁决：
+decidere una questione解决问题
+decidere una controversia裁决诉讼
+(2) 决定, 决意：
+decidere di partire in aereo 决定乘飞机走
+Questa iniziativa va decisa collettivamente.这项创议必须集体决定。
+decidere l’ora della partenza 决定出发时间
+[assol.] Lasciate decidere a lui.你们让他来决定。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ospitare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ospitasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 接待, 招待; 留宿：
+ospitare alcuni amici 招待几个朋友
+Questo asilo d’infanzia ospita due cento bambini.这所幼儿园接纳二百名儿童。
+Puoi ospitarmi per questa notte? 今晚你可以留我住一夜吗？
+(2) 采用, 发表 (文章等) ; 展出 (画幅等) ：
+ospitare un articolo登载一篇文章, 发表一篇文章
+La mostra ospita molte opere dell’Ottocento. 这次画展展出许多十九世纪的作品。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>spingere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>spingesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) 推, 推动: spingere un carro 推车
+spingere qlco. (qlcu.) avanti (indietro, dentro, fuori) 把某物 (某人) 向前 (后、里、外) 推
+spingere la macchina a forte velocità让汽车开足马力
+Il ragazzo spingeva i maiali verso il porcile.那孩子把猪赶进猪圈。
+La folla mi spinse lontano dall’ingresso.人群把我从门口挤到老远的地方。
+[assol.] La corrente spinge a riva.水流涌向堤岸。
+[assol.] Non spingete, per favore!别推了!
+(2) 促使, 迫使, 推动：
+Mi spinse a partire.他促使我动身。
+Il bisogno mi spinge a chiederti aiuto.需要迫使我来请你帮忙。
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cambiare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cambiasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>candidarsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si candidasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>candidarsi
+v.rifl.
+自己提名为候选人，参加竞选：
+candidarsi alla carica di sindaco 参加市长的竞选</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>parlare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>parlassimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>provenire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>provenisse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi.（后面+a) 来自，源自于merce che proviene dall’estero来自国外的货物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>svolgere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>svolgesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) 展开,打开, 摊开：
+svolgere un pacco打开包裹
+svolgere una matassa di lana打开一束毛线
+(2) [转] 发挥, 展开：
+svolgere un argomento对一个论点加以发挥
+svolgere il tema di italiano作一篇意大利文作文
+(3) [转] 进行,开展：
+svolgere un lavoro进行一项工作
+svolgere un’attività开展一项活动
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>concludere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>concludesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v.tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1) 结束，做完，做成：
+Ha finalmente concluso la sua arringa.他终于结束了高谈阔论。
+Oggi ho faticato molto, ma non ho concluso niente. 今天我忙了一天， 可是什么也没做成。
+(2) 缔结，议定：
+concludere un trattato 缔结一项条约
+concludere un affare 做一笔生意
+(3) 得出...结论：
+Abbiamo concluso che ha troto 我们得出结论他错了。
+(4) [古] [文] 包括，包含
+[II.]
+v.intr.
+[aus. avere] 有说服力：
+un argomento che non conclude 一种没有说服力的论据</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>giungere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>giungesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi.(后面+a)到达 Siamo giunti in tempo alla stazione.我们及时到了火车站。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>evidenziare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>evidenziasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 突出，使显明：
+evidenziare una pratica 准备速办一件公事
+evidenziare gli aspetti salienti di una recente scoperta scientifica把一项最新科学发明的主要部分如以突岀
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>propo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rsi</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si proponesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">决定 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mi proposi di non intervenire pi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nelle loro discussioni 
+我决定不再介入她们的讨论</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>consentire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>consentisse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.允许 vi.同意（后面+a) i genitori hanno consentito al matrimonio 母父同意了这个婚事</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>muoversi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si muovesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>muòversi
+v.rifl.
+(1) 动; 走动; 活动：
+Sono tanto malato che non posso muovermi.我病得厉害不能动弹。
+Se non ti chiamo, non ti muovere.如果我不叫你, 你就别动。
+muovere dal proprio paese 离乡背井
+muovere da casa 离开家
+Muoviti: è tardi!晚啦, 快点吧！
+(2) [转] 采取行动；行动起来：
+Nessuno si mosse in mio aiuto; 没有人来帮我。
+S’è mosso il direttore in persona.主任亲自过问。
+(3) [转] 感动, 激动
+muovere a pietà同情, 怜悯
+(4) 运动, 运转：
+La luna si muove intorno alla Terra.月亮绕地球转动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>registrare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>registrasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">把电视画面录在磁带上 ★★ 登记 ★★ 登记入住 ★★ 使适合 ★★ 调节 ★★ 调整 ★★ 校准 ★★ 注册 ★★ 记录 ★★ 录音
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>controllare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>voi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>controllaste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 控制: controllare il mercato internazionale del cacao控制国际可可市场
+La macchina è controllata automaticamente.这部机器是自动控制的.
+controllare la situazione控制局势
+(2) 核对, 检查: controllare l’esattezza di un’informazione核实一条消息
+controllare la qualità di un prodotto检查产品的质量
+controllare i freni di una macchina检查汽车的闸
+controllare il passaporto 检查护照
+controllare i conti查账
+controllare i biglietti查票
+controllare la pressione验血压</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>imparare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>imparaste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>integrare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>integrasse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 补全，使完全：
+integrare un testo con note 在正文上加上注解 integrare un’alimentazione insufficiente 补足不足的食品
+(2) 使联系，使结合：
+integrare la teoria con la pratica 使理论与实际相结合
+(3) 使并入，使成为一体：
+integrare una minoranza etnica 同化一个少数民族
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>permettere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>permettesse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v.tr.
+允许，准许，许可：
+Il medico non mi permette di uscire. 医生不许我出去。
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -767,6 +2800,13 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -816,7 +2856,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -831,6 +2871,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,10 +3162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E235" sqref="E235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1141,7 +3196,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1155,7 +3210,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1164,12 +3219,12 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1178,12 +3233,12 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1192,12 +3247,12 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1206,12 +3261,12 @@
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1220,12 +3275,12 @@
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1234,12 +3289,12 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1248,12 +3303,12 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1262,12 +3317,12 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1276,12 +3331,12 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1290,12 +3345,12 @@
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1304,12 +3359,12 @@
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1318,12 +3373,12 @@
         <v>6</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1332,12 +3387,12 @@
         <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1346,12 +3401,12 @@
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1360,12 +3415,12 @@
         <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1374,12 +3429,12 @@
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1388,12 +3443,12 @@
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1402,12 +3457,12 @@
         <v>6</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -1416,12 +3471,12 @@
         <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -1430,12 +3485,12 @@
         <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -1444,12 +3499,12 @@
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1458,12 +3513,12 @@
         <v>10</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1472,12 +3527,12 @@
         <v>11</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -1486,12 +3541,12 @@
         <v>6</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -1500,12 +3555,12 @@
         <v>7</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -1514,12 +3569,12 @@
         <v>8</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -1528,12 +3583,12 @@
         <v>9</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -1542,12 +3597,12 @@
         <v>10</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -1556,12 +3611,12 @@
         <v>11</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -1570,12 +3625,12 @@
         <v>6</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
@@ -1584,12 +3639,12 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -1598,12 +3653,12 @@
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
@@ -1612,12 +3667,12 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -1626,12 +3681,12 @@
         <v>10</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -1640,12 +3695,12 @@
         <v>11</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
         <v>17</v>
@@ -1654,12 +3709,12 @@
         <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
@@ -1668,12 +3723,12 @@
         <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
@@ -1682,12 +3737,12 @@
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
         <v>17</v>
@@ -1696,12 +3751,12 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
@@ -1710,12 +3765,12 @@
         <v>10</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
@@ -1724,12 +3779,12 @@
         <v>11</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
@@ -1738,12 +3793,12 @@
         <v>6</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
@@ -1752,12 +3807,12 @@
         <v>7</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
@@ -1766,12 +3821,12 @@
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
@@ -1780,12 +3835,12 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
@@ -1794,12 +3849,12 @@
         <v>10</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
@@ -1808,12 +3863,12 @@
         <v>11</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -1822,12 +3877,12 @@
         <v>6</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
@@ -1836,12 +3891,12 @@
         <v>7</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
@@ -1850,12 +3905,12 @@
         <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -1864,12 +3919,12 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
@@ -1878,12 +3933,12 @@
         <v>10</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
@@ -1892,12 +3947,12 @@
         <v>11</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -1906,12 +3961,12 @@
         <v>6</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
@@ -1920,12 +3975,12 @@
         <v>7</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -1934,12 +3989,12 @@
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
         <v>20</v>
@@ -1948,12 +4003,12 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -1962,12 +4017,12 @@
         <v>10</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
@@ -1976,12 +4031,12 @@
         <v>11</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -1990,12 +4045,12 @@
         <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s">
         <v>21</v>
@@ -2004,12 +4059,12 @@
         <v>7</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B64" t="s">
         <v>21</v>
@@ -2018,12 +4073,12 @@
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
@@ -2032,12 +4087,12 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
@@ -2046,12 +4101,12 @@
         <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B67" t="s">
         <v>21</v>
@@ -2060,12 +4115,12 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -2074,12 +4129,12 @@
         <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
@@ -2088,12 +4143,12 @@
         <v>7</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
@@ -2102,12 +4157,12 @@
         <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
@@ -2116,12 +4171,12 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
@@ -2130,12 +4185,12 @@
         <v>10</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
@@ -2144,12 +4199,12 @@
         <v>11</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B74" t="s">
         <v>23</v>
@@ -2158,12 +4213,12 @@
         <v>6</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B75" t="s">
         <v>23</v>
@@ -2172,12 +4227,12 @@
         <v>7</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B76" t="s">
         <v>23</v>
@@ -2186,12 +4241,12 @@
         <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B77" t="s">
         <v>23</v>
@@ -2200,12 +4255,12 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B78" t="s">
         <v>23</v>
@@ -2214,12 +4269,12 @@
         <v>10</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B79" t="s">
         <v>23</v>
@@ -2228,12 +4283,12 @@
         <v>11</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B80" t="s">
         <v>24</v>
@@ -2242,12 +4297,12 @@
         <v>6</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B81" t="s">
         <v>24</v>
@@ -2256,12 +4311,12 @@
         <v>7</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B82" t="s">
         <v>24</v>
@@ -2270,12 +4325,12 @@
         <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
@@ -2284,12 +4339,12 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B84" t="s">
         <v>24</v>
@@ -2298,12 +4353,12 @@
         <v>10</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B85" t="s">
         <v>24</v>
@@ -2312,12 +4367,12 @@
         <v>11</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B86" t="s">
         <v>25</v>
@@ -2326,12 +4381,12 @@
         <v>6</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B87" t="s">
         <v>25</v>
@@ -2340,12 +4395,12 @@
         <v>7</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B88" t="s">
         <v>25</v>
@@ -2354,12 +4409,12 @@
         <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B89" t="s">
         <v>25</v>
@@ -2368,12 +4423,12 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B90" t="s">
         <v>25</v>
@@ -2382,12 +4437,12 @@
         <v>10</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B91" t="s">
         <v>25</v>
@@ -2396,12 +4451,12 @@
         <v>11</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
@@ -2410,12 +4465,12 @@
         <v>6</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B93" t="s">
         <v>26</v>
@@ -2424,12 +4479,12 @@
         <v>7</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B94" t="s">
         <v>26</v>
@@ -2438,12 +4493,12 @@
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
@@ -2452,12 +4507,12 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B96" t="s">
         <v>26</v>
@@ -2466,12 +4521,12 @@
         <v>10</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B97" t="s">
         <v>26</v>
@@ -2480,12 +4535,12 @@
         <v>11</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B98" t="s">
         <v>27</v>
@@ -2494,12 +4549,12 @@
         <v>6</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B99" t="s">
         <v>27</v>
@@ -2508,12 +4563,12 @@
         <v>7</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B100" t="s">
         <v>27</v>
@@ -2522,12 +4577,12 @@
         <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B101" t="s">
         <v>27</v>
@@ -2536,12 +4591,12 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B102" t="s">
         <v>27</v>
@@ -2550,12 +4605,12 @@
         <v>10</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B103" t="s">
         <v>27</v>
@@ -2564,12 +4619,12 @@
         <v>11</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B104" t="s">
         <v>28</v>
@@ -2578,12 +4633,12 @@
         <v>6</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B105" t="s">
         <v>28</v>
@@ -2592,12 +4647,12 @@
         <v>7</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B106" t="s">
         <v>28</v>
@@ -2606,12 +4661,12 @@
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B107" t="s">
         <v>28</v>
@@ -2620,12 +4675,12 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B108" t="s">
         <v>28</v>
@@ -2634,12 +4689,12 @@
         <v>10</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B109" t="s">
         <v>28</v>
@@ -2648,12 +4703,12 @@
         <v>11</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B110" t="s">
         <v>29</v>
@@ -2662,12 +4717,12 @@
         <v>6</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B111" t="s">
         <v>29</v>
@@ -2676,12 +4731,12 @@
         <v>7</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B112" t="s">
         <v>29</v>
@@ -2690,12 +4745,12 @@
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B113" t="s">
         <v>29</v>
@@ -2704,12 +4759,12 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B114" t="s">
         <v>29</v>
@@ -2718,12 +4773,12 @@
         <v>10</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B115" t="s">
         <v>29</v>
@@ -2732,12 +4787,12 @@
         <v>11</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B116" t="s">
         <v>30</v>
@@ -2746,12 +4801,12 @@
         <v>6</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B117" t="s">
         <v>30</v>
@@ -2760,12 +4815,12 @@
         <v>7</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B118" t="s">
         <v>30</v>
@@ -2774,12 +4829,12 @@
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B119" t="s">
         <v>30</v>
@@ -2788,12 +4843,12 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B120" t="s">
         <v>30</v>
@@ -2802,12 +4857,12 @@
         <v>10</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B121" t="s">
         <v>30</v>
@@ -2816,12 +4871,12 @@
         <v>11</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B122" t="s">
         <v>31</v>
@@ -2830,12 +4885,12 @@
         <v>6</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B123" t="s">
         <v>31</v>
@@ -2844,12 +4899,12 @@
         <v>7</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B124" t="s">
         <v>31</v>
@@ -2858,12 +4913,12 @@
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B125" t="s">
         <v>31</v>
@@ -2872,12 +4927,12 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B126" t="s">
         <v>31</v>
@@ -2886,12 +4941,12 @@
         <v>10</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B127" t="s">
         <v>31</v>
@@ -2900,12 +4955,12 @@
         <v>11</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="140" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B128" t="s">
         <v>32</v>
@@ -2914,15 +4969,15 @@
         <v>6</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="140" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B129" t="s">
         <v>32</v>
@@ -2931,15 +4986,15 @@
         <v>7</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="140" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B130" t="s">
         <v>32</v>
@@ -2948,15 +5003,15 @@
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="140" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B131" t="s">
         <v>32</v>
@@ -2965,15 +5020,15 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="140" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B132" t="s">
         <v>32</v>
@@ -2982,15 +5037,15 @@
         <v>10</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="140" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B133" t="s">
         <v>32</v>
@@ -2999,15 +5054,15 @@
         <v>11</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B134" t="s">
         <v>33</v>
@@ -3016,12 +5071,12 @@
         <v>6</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B135" t="s">
         <v>33</v>
@@ -3030,12 +5085,12 @@
         <v>7</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B136" t="s">
         <v>33</v>
@@ -3044,12 +5099,12 @@
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B137" t="s">
         <v>33</v>
@@ -3058,12 +5113,12 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B138" t="s">
         <v>33</v>
@@ -3072,12 +5127,12 @@
         <v>10</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B139" t="s">
         <v>33</v>
@@ -3086,12 +5141,12 @@
         <v>11</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B140" t="s">
         <v>34</v>
@@ -3100,12 +5155,12 @@
         <v>6</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B141" t="s">
         <v>34</v>
@@ -3114,12 +5169,12 @@
         <v>7</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B142" t="s">
         <v>34</v>
@@ -3128,12 +5183,12 @@
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B143" t="s">
         <v>34</v>
@@ -3142,12 +5197,12 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B144" t="s">
         <v>34</v>
@@ -3156,12 +5211,12 @@
         <v>10</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B145" t="s">
         <v>34</v>
@@ -3170,12 +5225,12 @@
         <v>11</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B146" t="s">
         <v>35</v>
@@ -3184,12 +5239,12 @@
         <v>6</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B147" t="s">
         <v>35</v>
@@ -3198,12 +5253,12 @@
         <v>7</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B148" t="s">
         <v>35</v>
@@ -3212,12 +5267,12 @@
         <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B149" t="s">
         <v>35</v>
@@ -3226,12 +5281,12 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B150" t="s">
         <v>35</v>
@@ -3240,12 +5295,12 @@
         <v>10</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B151" t="s">
         <v>35</v>
@@ -3254,7 +5309,2057 @@
         <v>11</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>50</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E152" s="7"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>50</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E153" s="7"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>50</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>50</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>50</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E156" s="7"/>
+    </row>
+    <row r="157" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>50</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>50</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>50</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E159" s="7"/>
+    </row>
+    <row r="160" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>50</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>50</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>50</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>50</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>50</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>50</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>50</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>50</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>50</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>50</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>50</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>50</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>50</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>50</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>50</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E174" s="7"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>50</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E175" s="7"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>50</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E176" s="7"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>50</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>50</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>50</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>50</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>50</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>50</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E182" s="7"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>50</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>50</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>50</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>50</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>50</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E187" s="7"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>50</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E188" s="7"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>50</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E189" s="7"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>50</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E190" s="7"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>50</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E191" s="7"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>50</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E192" s="7"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>50</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>50</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>50</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>50</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>50</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>50</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>50</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E199" s="7"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>50</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>50</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>50</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>50</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E203" s="7"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>50</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>50</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>50</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>50</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E207" s="7"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>50</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>50</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="154" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>50</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E210" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="168" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>50</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E211" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>50</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>50</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>50</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>50</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>50</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="E216" s="7"/>
+    </row>
+    <row r="217" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>50</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>50</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E218" s="7"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>50</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E219" s="7"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>50</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>50</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>50</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E222" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>50</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E223" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>50</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="E224" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>50</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E225" s="7"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>50</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E226" s="7"/>
+    </row>
+    <row r="227" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>50</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>50</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="E228" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>50</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>50</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E230" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>50</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E231" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>50</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="E232" s="7"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>50</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>50</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E234" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>50</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E235" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>50</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>50</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E237" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>50</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E238" s="7"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>50</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E239" s="7"/>
+    </row>
+    <row r="240" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>50</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E240" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>50</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E241" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>50</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="E242" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>50</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E243" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="182" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>50</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E244" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>50</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E245" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="224" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>50</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E246" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>50</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="E247" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>50</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="E248" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>50</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E249" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>50</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="E250" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="140" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>50</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="E251" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="168" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>50</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E252" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>50</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E253" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>50</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="E254" s="7"/>
+    </row>
+    <row r="255" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>50</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="E255" s="8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>50</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="E256" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>50</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="E257" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>50</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="E258" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="196" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>50</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="E259" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>50</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E260" s="7"/>
+    </row>
+    <row r="261" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>50</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="E261" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>50</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="E262" s="7"/>
+    </row>
+    <row r="263" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>50</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="E263" s="8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="140" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>50</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E264" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="196" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>50</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="E265" s="8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>50</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="E266" s="8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="70" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>50</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="E267" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>50</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="E268" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>50</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="E269" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>50</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="E270" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>50</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="E271" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="168" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>50</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="E272" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>50</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="E273" s="7"/>
+    </row>
+    <row r="274" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>50</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="E274" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>50</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E275" s="8" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
